--- a/STM32F429/Docs/IO接线表.xlsx
+++ b/STM32F429/Docs/IO接线表.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25167cc0c48f5027/文档/生产/物联网项目/F429_V1/STM32F429/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="11_F25DC773A252ABDACC104814815E7C5E5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1C44765-6FF7-4C1F-BE11-563704FF7E37}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="11_F25DC773A252ABDACC104814815E7C5E5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{793AD456-417B-4837-A5BB-F883AF641483}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9855" yWindow="5085" windowWidth="23010" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="STM32_IO" sheetId="3" r:id="rId1"/>
-    <sheet name="ESP32_IO" sheetId="4" r:id="rId2"/>
+    <sheet name="IO" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -680,10 +679,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -949,22 +944,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1127F034-4291-4F78-A355-293077B1700E}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>112</v>
       </c>
@@ -975,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -992,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1009,7 +1004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1026,7 +1021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1043,7 +1038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1060,7 +1055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1075,7 +1070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1090,7 +1085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1105,7 +1100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1120,7 +1115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1135,7 +1130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1150,7 +1145,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1165,7 +1160,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1182,7 +1177,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1197,7 +1192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -1212,7 +1207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1227,7 +1222,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1242,7 +1237,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1257,7 +1252,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1272,7 +1267,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1287,7 +1282,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1304,7 +1299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1319,7 +1314,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1334,7 +1329,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1349,7 +1344,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -1364,7 +1359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -1379,7 +1374,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -1394,7 +1389,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -1409,7 +1404,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -1426,7 +1421,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -1443,7 +1438,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -1460,7 +1455,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -1477,7 +1472,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -1494,7 +1489,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -1511,7 +1506,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -1526,7 +1521,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>35</v>
       </c>
@@ -1543,7 +1538,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>36</v>
       </c>
@@ -1560,7 +1555,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>37</v>
       </c>
@@ -1577,7 +1572,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>38</v>
       </c>
@@ -1594,11 +1589,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="10">
-        <v>37</v>
-      </c>
+    <row r="41" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
+        <v>39</v>
+      </c>
+      <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
         <v>97</v>
       </c>
@@ -1609,11 +1604,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="10">
+    <row r="42" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
         <v>40</v>
       </c>
+      <c r="B42" s="10"/>
       <c r="C42" s="10" t="s">
         <v>9</v>
       </c>
@@ -1624,10 +1619,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>116</v>
       </c>
@@ -1638,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>1</v>
       </c>
@@ -1653,7 +1648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="11" t="s">
@@ -1666,7 +1661,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="11" t="s">
@@ -1679,7 +1674,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="11" t="s">
@@ -1692,7 +1687,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>98</v>
       </c>
@@ -1703,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>1</v>
       </c>
@@ -1718,7 +1713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="11" t="s">
@@ -1731,7 +1726,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="11" t="s">
@@ -1744,7 +1739,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>106</v>
       </c>
@@ -1755,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>1</v>
       </c>
@@ -1770,7 +1765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="12" t="s">
@@ -1783,7 +1778,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>109</v>
       </c>
@@ -1794,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>1</v>
       </c>
@@ -1809,7 +1804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="11" t="s">
@@ -1822,7 +1817,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="11" t="s">
@@ -1835,8 +1830,61 @@
         <v>110</v>
       </c>
     </row>
+    <row r="65" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A65:D65"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A1:D1"/>
@@ -1850,80 +1898,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE7BA78-2C7F-4948-926D-1D012D1E27AB}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>